--- a/doc/VPP/TredjeNormalform_example.xlsx
+++ b/doc/VPP/TredjeNormalform_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Ships-and-Sails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Ships-and-Sails\doc\VPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D59BA4D-B6C7-47DC-B0DF-98EE77F9CC79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC34BA4-A753-4651-9EF8-5AA4FDA92B94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{54265E75-A912-4361-9A44-C1849DF95CFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -238,6 +238,36 @@
   </si>
   <si>
     <t>noOfShipsprPlayer</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>speedUp</t>
+  </si>
+  <si>
+    <t>speedDown</t>
+  </si>
+  <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>loadNew</t>
+  </si>
+  <si>
+    <t>changeRight</t>
+  </si>
+  <si>
+    <t>changeLeft</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>afslutRunde</t>
   </si>
 </sst>
 </file>
@@ -603,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC2375-BD12-4856-BC4F-DC25547A76BB}">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,9 +892,6 @@
       <c r="S6">
         <v>57</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J7">
@@ -1262,6 +1289,83 @@
       </c>
       <c r="C50">
         <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/doc/VPP/TredjeNormalform_example.xlsx
+++ b/doc/VPP/TredjeNormalform_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Ships-and-Sails\doc\VPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC34BA4-A753-4651-9EF8-5AA4FDA92B94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6EF20A-102A-4E5E-BADC-1742A65D7669}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{54265E75-A912-4361-9A44-C1849DF95CFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>afslutRunde</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>isEnemy</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC2375-BD12-4856-BC4F-DC25547A76BB}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +661,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -660,7 +669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -718,8 +727,11 @@
       <c r="T3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -748,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -777,8 +789,11 @@
       <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -836,8 +851,11 @@
       <c r="T5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -892,8 +910,11 @@
       <c r="S6">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="J7">
         <v>4</v>
       </c>
@@ -927,8 +948,11 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -936,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
@@ -965,8 +989,11 @@
       <c r="T8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -994,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1008,7 +1035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1022,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1366,6 +1393,14 @@
       </c>
       <c r="B62" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/VPP/TredjeNormalform_example.xlsx
+++ b/doc/VPP/TredjeNormalform_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Ships-and-Sails\doc\VPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6EF20A-102A-4E5E-BADC-1742A65D7669}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8081E-5216-4FA2-9B1D-8BAEE6C428C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{54265E75-A912-4361-9A44-C1849DF95CFE}"/>
   </bookViews>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC2375-BD12-4856-BC4F-DC25547A76BB}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/doc/VPP/TredjeNormalform_example.xlsx
+++ b/doc/VPP/TredjeNormalform_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Ships-and-Sails\doc\VPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8081E-5216-4FA2-9B1D-8BAEE6C428C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09F715-D032-4DA5-9FB7-351F277B860E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{54265E75-A912-4361-9A44-C1849DF95CFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>move</t>
-  </si>
-  <si>
-    <t>isEnemy</t>
   </si>
   <si>
     <t>UK</t>
@@ -642,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC2375-BD12-4856-BC4F-DC25547A76BB}">
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,7 +658,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -669,7 +666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -727,11 +724,8 @@
       <c r="T3" t="s">
         <v>64</v>
       </c>
-      <c r="U3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -760,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -789,11 +783,8 @@
       <c r="T4">
         <v>2</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -851,11 +842,8 @@
       <c r="T5">
         <v>3</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -910,11 +898,8 @@
       <c r="S6">
         <v>57</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J7">
         <v>4</v>
       </c>
@@ -948,11 +933,8 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -960,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
@@ -989,11 +971,8 @@
       <c r="T8">
         <v>3</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1021,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1035,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1049,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
